--- a/public/form/코드등록Tmp.xlsx
+++ b/public/form/코드등록Tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAAN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WAI\wai_admin-1\public\form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43CEED1-DC5A-4EBF-821D-71024669B67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBABF9-D22E-44B1-B3C5-AD3FBAA30758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{11942297-3C40-4C7F-B55B-21E8372467FC}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25590" windowHeight="15015" xr2:uid="{11942297-3C40-4C7F-B55B-21E8372467FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>코드그룹명</t>
+    <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상위코드</t>
+    <t>코드명 국문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드명</t>
+    <t>코드명 영문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드</t>
+    <t>코드설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,12 +83,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,8 +112,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,22 +456,26 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
